--- a/biology/Botanique/Riz_rouge_du_Bhoutan/Riz_rouge_du_Bhoutan.xlsx
+++ b/biology/Botanique/Riz_rouge_du_Bhoutan/Riz_rouge_du_Bhoutan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le riz rouge du Bhoutan est un riz de taille moyenne cultivé au Bhoutan. C'est la nourriture de base des bhoutanais.
 Le riz rouge du Bhoutan est un riz japonais. Une partie des glumelles rouges sont laissées sur le grain, ce qui donne une cuisson plus rapide que le riz complet. Ce riz est rose pale lors de la cuisson, mou et légèrement collant.
